--- a/data/labeled_third_total_file_list.xlsx
+++ b/data/labeled_third_total_file_list.xlsx
@@ -3481,8 +3481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/labeled_third_total_file_list.xlsx
+++ b/data/labeled_third_total_file_list.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swetharevanur/Documents/2_Sophomore/1_Fall/CS 221/cs221-final-project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KeanuSpies/Documents/2_Soph_2017/Fall/cs221/cs221-final-project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3138,6 +3138,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3481,12 +3482,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="M73" sqref="M73"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="O88" sqref="O88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6449,6 +6451,9 @@
       <c r="L73">
         <v>2017</v>
       </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
@@ -6487,6 +6492,9 @@
       <c r="L74">
         <v>2017</v>
       </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -6525,6 +6533,9 @@
       <c r="L75">
         <v>2017</v>
       </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -6563,6 +6574,9 @@
       <c r="L76">
         <v>2017</v>
       </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -6601,6 +6615,9 @@
       <c r="L77">
         <v>2017</v>
       </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
@@ -6638,6 +6655,9 @@
       </c>
       <c r="L78">
         <v>2017</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -6677,6 +6697,9 @@
       <c r="L79">
         <v>2017</v>
       </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
@@ -6715,8 +6738,11 @@
       <c r="L80">
         <v>2017</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -6753,8 +6779,11 @@
       <c r="L81">
         <v>2017</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -6791,8 +6820,11 @@
       <c r="L82">
         <v>2017</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -6826,8 +6858,11 @@
       <c r="L83">
         <v>2017</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>69</v>
       </c>
@@ -6864,8 +6899,11 @@
       <c r="L84">
         <v>2017</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -6902,8 +6940,11 @@
       <c r="L85">
         <v>2017</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -6940,8 +6981,11 @@
       <c r="L86">
         <v>2017</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>69</v>
       </c>
@@ -6978,8 +7022,11 @@
       <c r="L87">
         <v>2017</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -7016,8 +7063,11 @@
       <c r="L88">
         <v>2017</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -7051,8 +7101,11 @@
       <c r="L89">
         <v>2017</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -7089,8 +7142,11 @@
       <c r="L90">
         <v>2017</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -7127,8 +7183,11 @@
       <c r="L91">
         <v>2017</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -7163,7 +7222,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -7201,7 +7260,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -7239,7 +7298,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -7274,7 +7333,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>20</v>
       </c>
